--- a/Deltage/testData/LoginTestDeltage-TestData.xlsx
+++ b/Deltage/testData/LoginTestDeltage-TestData.xlsx
@@ -14,10 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Password</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
   <si>
     <t>admin</t>
   </si>
@@ -373,19 +370,19 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -393,13 +390,17 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" display="abhijithnm171717@gmail.com"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>